--- a/data/trans_orig/IP07C24_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F3FDDE-ECE8-4646-8601-B8009686BE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C68A9E-D3F6-465D-A6D7-4DC7F020732F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{495B62A4-3B56-4254-9611-EE36B97894CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D9E1F8A-1596-43BA-A1E2-97A44A099320}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
   <si>
     <t>Menores según frecuencia de divertirte con tus amigos en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>45,28%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>36,07%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>49,1%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -134,10 +134,10 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -146,130 +146,133 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,38%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>0,87%</t>
@@ -278,19 +281,16 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
     <t>0,98%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -305,73 +305,76 @@
     <t>82,23%</t>
   </si>
   <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>26,5%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>10,57%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>6,79%</t>
+    <t>7,29%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -386,82 +389,79 @@
     <t>63,74%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>60,28%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>31,93%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>37,69%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>4,5%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -470,7 +470,7 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,24%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -482,16 +482,13 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -906,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA28668-E56C-4152-8707-2EA91FAF19D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00748515-0B91-4A7E-97F1-1205B3BC393A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1440,13 +1437,13 @@
         <v>5790</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -1455,13 +1452,13 @@
         <v>3276</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -1470,13 +1467,13 @@
         <v>9066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1491,13 +1488,13 @@
         <v>1708</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1700,10 +1697,10 @@
         <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1712,13 +1709,13 @@
         <v>9099</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -1727,13 +1724,13 @@
         <v>17629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,13 +1745,13 @@
         <v>915</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1763,13 +1760,13 @@
         <v>681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1778,13 +1775,13 @@
         <v>1596</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,7 +1802,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1820,7 +1817,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1835,7 +1832,7 @@
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,7 +1853,7 @@
         <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1871,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1886,7 +1883,7 @@
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1951,13 @@
         <v>170309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -1969,13 +1966,13 @@
         <v>122100</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -1984,13 +1981,13 @@
         <v>292409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +2002,13 @@
         <v>85302</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
@@ -2020,13 +2017,13 @@
         <v>76331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>177</v>
@@ -2035,13 +2032,13 @@
         <v>161632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2053,13 @@
         <v>9497</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -2071,13 +2068,13 @@
         <v>4116</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -2086,10 +2083,10 @@
         <v>13613</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>141</v>
@@ -2188,13 +2185,13 @@
         <v>364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,7 +2247,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C24_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C68A9E-D3F6-465D-A6D7-4DC7F020732F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6212C7BA-12E3-4931-9154-7F958E5D968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D9E1F8A-1596-43BA-A1E2-97A44A099320}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{D91A3AD1-9A67-4C37-9C38-8B7B03067B75}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
   <si>
     <t>Menores según frecuencia de divertirte con tus amigos en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,121 +71,124 @@
     <t>Siempre</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
   </si>
   <si>
     <t>Casi nunca</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,301 +197,358 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -903,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00748515-0B91-4A7E-97F1-1205B3BC393A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9984DF7-DF45-4FA8-964C-6A2AD4AA576A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1021,10 +1081,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>7660</v>
+        <v>872</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1036,238 +1096,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6920</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>872</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7">
-        <v>14580</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>391</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6102</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>391</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6830</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>14</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12932</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>2792</v>
+        <v>715</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>159</v>
+        <v>596</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>2951</v>
+        <v>1311</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7904</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>10925</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7409</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8254</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>364</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>364</v>
+        <v>15663</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1276,306 +1336,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>118934</v>
+        <v>2362</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>84411</v>
+        <v>2697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>203345</v>
+        <v>5058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>70670</v>
+        <v>3495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>808</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="7">
-        <v>68</v>
-      </c>
-      <c r="I11" s="7">
-        <v>60401</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4303</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="7">
-        <v>140</v>
-      </c>
-      <c r="N11" s="7">
-        <v>131072</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7958</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7">
+        <v>15751</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="7">
         <v>30</v>
       </c>
-      <c r="C12" s="7">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5790</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3276</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="N12" s="7">
+        <v>23709</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="7">
-        <v>12</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9066</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>1708</v>
+        <v>72769</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>68</v>
+      </c>
+      <c r="I13" s="7">
+        <v>68285</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="N13" s="7">
-        <v>1708</v>
+        <v>141053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>72729</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>115160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>187889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,306 +1644,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>43715</v>
+        <v>723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>30768</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>723</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="N16" s="7">
-        <v>74483</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>8529</v>
+        <v>530</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="7">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9099</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>17629</v>
+        <v>530</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>915</v>
+        <v>1161</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1742</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>109</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>1596</v>
+        <v>2904</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>6461</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>12703</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>19164</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
         <v>45</v>
       </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>29876</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>38248</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>68124</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,49 +1952,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,253 +2005,253 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>170309</v>
+        <v>3957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>122100</v>
+        <v>2697</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
-        <v>376</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>292409</v>
+        <v>6653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>85302</v>
+        <v>4416</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>76331</v>
+        <v>808</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>161632</v>
+        <v>5224</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>9497</v>
+        <v>9835</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>4116</v>
+        <v>18089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N24" s="7">
-        <v>13613</v>
+        <v>27924</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D25" s="7">
-        <v>1708</v>
+        <v>82250</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>88892</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="N25" s="7">
-        <v>1708</v>
+        <v>171142</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="D26" s="7">
-        <v>364</v>
+        <v>110014</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>161662</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>347</v>
       </c>
       <c r="N26" s="7">
-        <v>364</v>
+        <v>271676</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,54 +2260,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>270</v>
+      </c>
+      <c r="D27" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>270</v>
-      </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>577</v>
       </c>
       <c r="N27" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
